--- a/example_outcome/horusec-v2.8.0.xlsx
+++ b/example_outcome/horusec-v2.8.0.xlsx
@@ -394,7 +394,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,13 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -471,16 +465,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +812,7 @@
     <col min="26" max="26" style="5" width="6.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +852,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -898,7 +892,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30.75">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -938,7 +932,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30.75">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -978,7 +972,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30.75">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>

--- a/example_outcome/horusec-v2.8.0.xlsx
+++ b/example_outcome/horusec-v2.8.0.xlsx
@@ -394,7 +394,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +405,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -432,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -455,6 +461,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -464,7 +477,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -812,7 +825,7 @@
     <col min="26" max="26" style="5" width="6.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +865,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -892,7 +905,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -932,7 +945,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33.75">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -972,7 +985,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33.75">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1025,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1065,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="63">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1105,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="47.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1145,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33.75">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1185,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1225,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33.75">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +1265,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="86.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="102">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +1305,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="47.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1332,7 +1345,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33.75">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
